--- a/data/GethAnalyse/statistics.xlsx
+++ b/data/GethAnalyse/statistics.xlsx
@@ -82,6 +82,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,6 +522,12 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <f>SUM(C2:C8)</f>
+        <v>309457708</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GethAnalyse/statistics.xlsx
+++ b/data/GethAnalyse/statistics.xlsx
@@ -82,74 +82,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,7 +359,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,11 +453,14 @@
       <c r="B8" s="1">
         <v>7000000</v>
       </c>
+      <c r="C8" s="1">
+        <v>45739722</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
-        <v>309457708</v>
+        <v>355197430</v>
       </c>
     </row>
   </sheetData>
